--- a/results/color_chart_pnan.xlsx
+++ b/results/color_chart_pnan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>dataset\model</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>test-clean-db0</t>
-  </si>
-  <si>
-    <t>test-clean-db5</t>
   </si>
 </sst>
 </file>
@@ -901,18 +898,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="13.7109375" customWidth="1"/>
+    <col min="1" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -940,11 +937,8 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -972,11 +966,8 @@
       <c r="I2" s="3">
         <v>0.01</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1004,11 +995,8 @@
       <c r="I3" s="3">
         <v>0.01</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1036,11 +1024,8 @@
       <c r="I4" s="3">
         <v>0.02</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1068,11 +1053,8 @@
       <c r="I5" s="3">
         <v>0.12</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1100,11 +1082,8 @@
       <c r="I6" s="3">
         <v>0.13</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1132,11 +1111,8 @@
       <c r="I7" s="3">
         <v>0.13</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1164,11 +1140,8 @@
       <c r="I8" s="3">
         <v>0.01</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1196,45 +1169,10 @@
       <c r="I9" s="3">
         <v>0.1</v>
       </c>
-      <c r="J9" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.12</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:J10">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B2:I9">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/results/color_chart_pnan.xlsx
+++ b/results/color_chart_pnan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="16275" windowHeight="11070"/>
+    <workbookView xWindow="8715" yWindow="1245" windowWidth="16275" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="compiled_results" sheetId="1" r:id="rId1"/>
@@ -16,38 +16,39 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
-    <t>dataset\model</t>
+    <t xml:space="preserve">            model
+dataset</t>
   </si>
   <si>
-    <t>test-clean</t>
+    <t>orig</t>
   </si>
   <si>
-    <t>test-clean-db-160</t>
+    <t>db-160</t>
   </si>
   <si>
-    <t>test-clean-db-80</t>
+    <t>db-80</t>
   </si>
   <si>
-    <t>test-clean-db-40</t>
+    <t>db-40</t>
   </si>
   <si>
-    <t>test-clean-db-20</t>
+    <t>db-20</t>
   </si>
   <si>
-    <t>test-clean-db-10</t>
+    <t>db-10</t>
   </si>
   <si>
-    <t>test-clean-db-5</t>
+    <t>db-5</t>
   </si>
   <si>
-    <t>test-clean-db0</t>
+    <t>db0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +186,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -550,10 +565,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -898,10 +913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,33 +931,33 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -968,7 +986,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -997,7 +1015,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -1026,7 +1044,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -1055,7 +1073,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -1084,7 +1102,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -1113,7 +1131,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -1142,7 +1160,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -1172,7 +1190,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:I9">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1184,6 +1202,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="99" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>